--- a/report.xlsx
+++ b/report.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="1" r:id="rId1"/>
-    <sheet name="DU2TAN15AJ049163detail" sheetId="2" r:id="rId2"/>
+    <sheet name="crash" sheetId="2" r:id="rId2"/>
+    <sheet name="37KNW18529001041detail" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>monkey性能监控</t>
   </si>
@@ -74,49 +75,50 @@
     <t>下行流量均值</t>
   </si>
   <si>
-    <t>H60-L02_Huawei_4.4</t>
+    <t>Permission denied_Permission denied_Permission denied</t>
   </si>
   <si>
     <t>8核</t>
   </si>
   <si>
-    <t>3014M</t>
+    <t>3789M</t>
   </si>
   <si>
-    <t>1080x1920</t>
+    <t>1080x2280</t>
   </si>
   <si>
     <t>gprs</t>
   </si>
   <si>
-    <t>75秒</t>
-  </si>
-  <si>
-    <t>35%</t>
+    <t>592秒</t>
   </si>
   <si>
     <t>23%</t>
   </si>
   <si>
-    <t>335M</t>
+    <t>5%</t>
   </si>
   <si>
-    <t>102M</t>
+    <t>476M</t>
+  </si>
+  <si>
+    <t>103M</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
-    <t>57.00</t>
+    <t>60.00</t>
   </si>
   <si>
-    <t>10624KB</t>
+    <t>0KB</t>
   </si>
   <si>
-    <t>232KB</t>
+    <t>崩溃统计日志</t>
   </si>
   <si>
-    <t>17KB</t>
+    <t xml:space="preserve">Got IOException performing flipjava.io.IOException: write failed: EINVAL (Invalid argument)
+</t>
   </si>
   <si>
     <t>cpu(%)</t>
@@ -244,69 +246,363 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>DU2TAN15AJ049163detail!$A$1:$A$20</c:f>
+              <c:f>37KNW18529001041detail!$A$1:$A$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="118"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="52">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25</c:v>
+                <c:pt idx="72">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -391,69 +687,363 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>DU2TAN15AJ049163detail!$B$1:$B$20</c:f>
+              <c:f>37KNW18529001041detail!$B$1:$B$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="118"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>151</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>236</c:v>
+                  <c:v>429</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>248</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>295</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>298</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>325</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>333</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>332</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>334</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>335</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>326</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>324</c:v>
+                  <c:v>403</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>329</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>335</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>334</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>330</c:v>
+                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>329</c:v>
+                  <c:v>382</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>331</c:v>
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -538,75 +1128,369 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>DU2TAN15AJ049163detail!$D$1:$D$22</c:f>
+              <c:f>37KNW18529001041detail!$D$1:$D$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="120"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -691,69 +1575,363 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>DU2TAN15AJ049163detail!$C$1:$C$20</c:f>
+              <c:f>37KNW18529001041detail!$C$1:$C$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="118"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>59</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>59</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>58</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>59</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>58</c:v>
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -838,69 +2016,363 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>DU2TAN15AJ049163detail!$E$1:$E$20</c:f>
+              <c:f>37KNW18529001041detail!$E$1:$E$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="118"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>335324</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>335335</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>336843</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>347466</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>347467</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>347467</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>347467</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>347469</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>347469</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>347470</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>347470</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>347471</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>347471</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>347472</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>347473</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>347473</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>347473</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>347474</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>347474</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -985,69 +2457,363 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>DU2TAN15AJ049163detail!$F$1:$F$20</c:f>
+              <c:f>37KNW18529001041detail!$F$1:$F$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="118"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60668</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60718</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60950</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60950</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60950</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60950</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60952</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60952</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60952</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60953</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60953</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60953</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60956</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>60956</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>60956</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60956</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>60957</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>60957</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1104,13 +2870,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1134,13 +2900,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1164,13 +2930,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1194,13 +2960,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1224,13 +2990,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1254,13 +3020,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1704,22 +3470,22 @@
         <v>30</v>
       </c>
       <c r="M3" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="N3" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1"/>
@@ -1742,7 +3508,140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:A24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1778,392 +3677,2352 @@
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
       <c r="A2" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>150</v>
+        <v>370</v>
       </c>
       <c r="C2" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2">
-        <v>335324</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>60666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>151</v>
+        <v>362</v>
       </c>
       <c r="C3" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2">
-        <v>335335</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>60668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
       <c r="A4" s="2">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2">
-        <v>236</v>
+        <v>429</v>
       </c>
       <c r="C4" s="2">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2">
-        <v>336843</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>60718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="2">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>248</v>
+        <v>362</v>
       </c>
       <c r="C5" s="2">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2">
-        <v>347466</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>60950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
       <c r="A6" s="2">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>295</v>
+        <v>380</v>
       </c>
       <c r="C6" s="2">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2">
-        <v>347467</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>60950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
       <c r="A7" s="2">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="C7" s="2">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2">
-        <v>347467</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>60950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="C8" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2">
-        <v>347467</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>60950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="C9" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2">
-        <v>347469</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>60952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="C10" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2">
-        <v>347469</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>60952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="C11" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2">
-        <v>347470</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>60952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="C12" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2">
-        <v>347470</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>60953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>326</v>
+        <v>381</v>
       </c>
       <c r="C13" s="2">
         <v>60</v>
       </c>
       <c r="D13" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2">
-        <v>347471</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>60953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2">
-        <v>324</v>
+        <v>403</v>
       </c>
       <c r="C14" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2">
-        <v>347471</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>60953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>329</v>
+        <v>415</v>
       </c>
       <c r="C15" s="2">
         <v>60</v>
       </c>
       <c r="D15" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2">
-        <v>347472</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>60956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2">
-        <v>335</v>
+        <v>389</v>
       </c>
       <c r="C16" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2">
-        <v>347473</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>60956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B17" s="2">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="C17" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2">
-        <v>347473</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>60956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B18" s="2">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="C18" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2">
-        <v>347473</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>60956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B19" s="2">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c r="C19" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2">
-        <v>347474</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>60957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>331</v>
+        <v>387</v>
       </c>
       <c r="C20" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2">
-        <v>347474</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>60957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <v>408</v>
+      </c>
+      <c r="C21" s="2">
+        <v>60</v>
+      </c>
       <c r="D21" s="2">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2">
+        <v>382</v>
+      </c>
+      <c r="C22" s="2">
+        <v>60</v>
+      </c>
       <c r="D22" s="2">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>355</v>
+      </c>
+      <c r="C23" s="2">
+        <v>60</v>
+      </c>
+      <c r="D23" s="2">
+        <v>46</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2">
+        <v>385</v>
+      </c>
+      <c r="C24" s="2">
+        <v>60</v>
+      </c>
+      <c r="D24" s="2">
+        <v>46</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2">
+        <v>366</v>
+      </c>
+      <c r="C25" s="2">
+        <v>60</v>
+      </c>
+      <c r="D25" s="2">
+        <v>46</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2">
+        <v>361</v>
+      </c>
+      <c r="C26" s="2">
+        <v>60</v>
+      </c>
+      <c r="D26" s="2">
+        <v>46</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2">
+        <v>375</v>
+      </c>
+      <c r="C27" s="2">
+        <v>60</v>
+      </c>
+      <c r="D27" s="2">
+        <v>46</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2">
+        <v>364</v>
+      </c>
+      <c r="C28" s="2">
+        <v>60</v>
+      </c>
+      <c r="D28" s="2">
+        <v>46</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2">
+        <v>357</v>
+      </c>
+      <c r="C29" s="2">
+        <v>60</v>
+      </c>
+      <c r="D29" s="2">
+        <v>46</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2">
+        <v>356</v>
+      </c>
+      <c r="C30" s="2">
+        <v>60</v>
+      </c>
+      <c r="D30" s="2">
+        <v>46</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2">
+        <v>357</v>
+      </c>
+      <c r="C31" s="2">
+        <v>60</v>
+      </c>
+      <c r="D31" s="2">
+        <v>46</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2">
+        <v>356</v>
+      </c>
+      <c r="C32" s="2">
+        <v>60</v>
+      </c>
+      <c r="D32" s="2">
+        <v>46</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2">
+        <v>371</v>
+      </c>
+      <c r="C33" s="2">
+        <v>60</v>
+      </c>
+      <c r="D33" s="2">
+        <v>46</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2">
+        <v>352</v>
+      </c>
+      <c r="C34" s="2">
+        <v>60</v>
+      </c>
+      <c r="D34" s="2">
+        <v>46</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2">
+        <v>371</v>
+      </c>
+      <c r="C35" s="2">
+        <v>60</v>
+      </c>
+      <c r="D35" s="2">
+        <v>46</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2">
+        <v>371</v>
+      </c>
+      <c r="C36" s="2">
+        <v>60</v>
+      </c>
+      <c r="D36" s="2">
+        <v>46</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2">
+        <v>5</v>
+      </c>
+      <c r="B37" s="2">
+        <v>369</v>
+      </c>
+      <c r="C37" s="2">
+        <v>60</v>
+      </c>
+      <c r="D37" s="2">
+        <v>46</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2">
+        <v>13</v>
+      </c>
+      <c r="B38" s="2">
+        <v>340</v>
+      </c>
+      <c r="C38" s="2">
+        <v>60</v>
+      </c>
+      <c r="D38" s="2">
+        <v>46</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2">
+        <v>338</v>
+      </c>
+      <c r="C39" s="2">
+        <v>60</v>
+      </c>
+      <c r="D39" s="2">
+        <v>46</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2">
+        <v>367</v>
+      </c>
+      <c r="C40" s="2">
+        <v>60</v>
+      </c>
+      <c r="D40" s="2">
+        <v>46</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
+        <v>5</v>
+      </c>
+      <c r="B41" s="2">
+        <v>374</v>
+      </c>
+      <c r="C41" s="2">
+        <v>60</v>
+      </c>
+      <c r="D41" s="2">
+        <v>46</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2">
+        <v>10</v>
+      </c>
+      <c r="B42" s="2">
+        <v>374</v>
+      </c>
+      <c r="C42" s="2">
+        <v>60</v>
+      </c>
+      <c r="D42" s="2">
+        <v>46</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
+        <v>6</v>
+      </c>
+      <c r="B43" s="2">
+        <v>373</v>
+      </c>
+      <c r="C43" s="2">
+        <v>60</v>
+      </c>
+      <c r="D43" s="2">
+        <v>46</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2">
+        <v>373</v>
+      </c>
+      <c r="C44" s="2">
+        <v>60</v>
+      </c>
+      <c r="D44" s="2">
+        <v>46</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
+        <v>6</v>
+      </c>
+      <c r="B45" s="2">
+        <v>373</v>
+      </c>
+      <c r="C45" s="2">
+        <v>60</v>
+      </c>
+      <c r="D45" s="2">
+        <v>46</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
+        <v>7</v>
+      </c>
+      <c r="B46" s="2">
+        <v>375</v>
+      </c>
+      <c r="C46" s="2">
+        <v>60</v>
+      </c>
+      <c r="D46" s="2">
+        <v>46</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
+        <v>5</v>
+      </c>
+      <c r="B47" s="2">
+        <v>378</v>
+      </c>
+      <c r="C47" s="2">
+        <v>60</v>
+      </c>
+      <c r="D47" s="2">
+        <v>46</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
+        <v>6</v>
+      </c>
+      <c r="B48" s="2">
+        <v>377</v>
+      </c>
+      <c r="C48" s="2">
+        <v>60</v>
+      </c>
+      <c r="D48" s="2">
+        <v>46</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
+        <v>5</v>
+      </c>
+      <c r="B49" s="2">
+        <v>377</v>
+      </c>
+      <c r="C49" s="2">
+        <v>60</v>
+      </c>
+      <c r="D49" s="2">
+        <v>46</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
+        <v>5</v>
+      </c>
+      <c r="B50" s="2">
+        <v>377</v>
+      </c>
+      <c r="C50" s="2">
+        <v>60</v>
+      </c>
+      <c r="D50" s="2">
+        <v>46</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
+        <v>6</v>
+      </c>
+      <c r="B51" s="2">
+        <v>378</v>
+      </c>
+      <c r="C51" s="2">
+        <v>60</v>
+      </c>
+      <c r="D51" s="2">
+        <v>46</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
+        <v>23</v>
+      </c>
+      <c r="B52" s="2">
+        <v>399</v>
+      </c>
+      <c r="C52" s="2">
+        <v>60</v>
+      </c>
+      <c r="D52" s="2">
+        <v>46</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
+        <v>6</v>
+      </c>
+      <c r="B53" s="2">
+        <v>392</v>
+      </c>
+      <c r="C53" s="2">
+        <v>60</v>
+      </c>
+      <c r="D53" s="2">
+        <v>46</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
+        <v>6</v>
+      </c>
+      <c r="B54" s="2">
+        <v>392</v>
+      </c>
+      <c r="C54" s="2">
+        <v>60</v>
+      </c>
+      <c r="D54" s="2">
+        <v>45</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
+        <v>7</v>
+      </c>
+      <c r="B55" s="2">
+        <v>395</v>
+      </c>
+      <c r="C55" s="2">
+        <v>60</v>
+      </c>
+      <c r="D55" s="2">
+        <v>45</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2">
+        <v>5</v>
+      </c>
+      <c r="B56" s="2">
+        <v>400</v>
+      </c>
+      <c r="C56" s="2">
+        <v>60</v>
+      </c>
+      <c r="D56" s="2">
+        <v>45</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2">
+        <v>13</v>
+      </c>
+      <c r="B57" s="2">
+        <v>476</v>
+      </c>
+      <c r="C57" s="2">
+        <v>60</v>
+      </c>
+      <c r="D57" s="2">
+        <v>45</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2">
+        <v>18</v>
+      </c>
+      <c r="B58" s="2">
+        <v>422</v>
+      </c>
+      <c r="C58" s="2">
+        <v>60</v>
+      </c>
+      <c r="D58" s="2">
+        <v>45</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2">
+        <v>369</v>
+      </c>
+      <c r="C59" s="2">
+        <v>60</v>
+      </c>
+      <c r="D59" s="2">
+        <v>45</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2">
+        <v>9</v>
+      </c>
+      <c r="B60" s="2">
+        <v>398</v>
+      </c>
+      <c r="C60" s="2">
+        <v>60</v>
+      </c>
+      <c r="D60" s="2">
+        <v>45</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2">
+        <v>4</v>
+      </c>
+      <c r="B61" s="2">
+        <v>396</v>
+      </c>
+      <c r="C61" s="2">
+        <v>60</v>
+      </c>
+      <c r="D61" s="2">
+        <v>45</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2">
+        <v>4</v>
+      </c>
+      <c r="B62" s="2">
+        <v>396</v>
+      </c>
+      <c r="C62" s="2">
+        <v>60</v>
+      </c>
+      <c r="D62" s="2">
+        <v>45</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2">
+        <v>4</v>
+      </c>
+      <c r="B63" s="2">
+        <v>395</v>
+      </c>
+      <c r="C63" s="2">
+        <v>60</v>
+      </c>
+      <c r="D63" s="2">
+        <v>45</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2">
+        <v>395</v>
+      </c>
+      <c r="C64" s="2">
+        <v>60</v>
+      </c>
+      <c r="D64" s="2">
+        <v>45</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2">
+        <v>0</v>
+      </c>
+      <c r="B65" s="2">
+        <v>363</v>
+      </c>
+      <c r="C65" s="2">
+        <v>60</v>
+      </c>
+      <c r="D65" s="2">
+        <v>45</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2">
+        <v>14</v>
+      </c>
+      <c r="B66" s="2">
+        <v>381</v>
+      </c>
+      <c r="C66" s="2">
+        <v>60</v>
+      </c>
+      <c r="D66" s="2">
+        <v>45</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2">
+        <v>9</v>
+      </c>
+      <c r="B67" s="2">
+        <v>409</v>
+      </c>
+      <c r="C67" s="2">
+        <v>60</v>
+      </c>
+      <c r="D67" s="2">
+        <v>45</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2">
+        <v>5</v>
+      </c>
+      <c r="B68" s="2">
+        <v>395</v>
+      </c>
+      <c r="C68" s="2">
+        <v>60</v>
+      </c>
+      <c r="D68" s="2">
+        <v>45</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2">
+        <v>4</v>
+      </c>
+      <c r="B69" s="2">
+        <v>394</v>
+      </c>
+      <c r="C69" s="2">
+        <v>60</v>
+      </c>
+      <c r="D69" s="2">
+        <v>45</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2">
+        <v>15</v>
+      </c>
+      <c r="B70" s="2">
+        <v>372</v>
+      </c>
+      <c r="C70" s="2">
+        <v>60</v>
+      </c>
+      <c r="D70" s="2">
+        <v>45</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2">
+        <v>10</v>
+      </c>
+      <c r="B71" s="2">
+        <v>380</v>
+      </c>
+      <c r="C71" s="2">
+        <v>60</v>
+      </c>
+      <c r="D71" s="2">
+        <v>45</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2">
+        <v>19</v>
+      </c>
+      <c r="B72" s="2">
+        <v>384</v>
+      </c>
+      <c r="C72" s="2">
+        <v>60</v>
+      </c>
+      <c r="D72" s="2">
+        <v>45</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2">
+        <v>6</v>
+      </c>
+      <c r="B73" s="2">
+        <v>381</v>
+      </c>
+      <c r="C73" s="2">
+        <v>60</v>
+      </c>
+      <c r="D73" s="2">
+        <v>45</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2">
+        <v>5</v>
+      </c>
+      <c r="B74" s="2">
+        <v>381</v>
+      </c>
+      <c r="C74" s="2">
+        <v>60</v>
+      </c>
+      <c r="D74" s="2">
+        <v>45</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2">
+        <v>5</v>
+      </c>
+      <c r="B75" s="2">
+        <v>380</v>
+      </c>
+      <c r="C75" s="2">
+        <v>60</v>
+      </c>
+      <c r="D75" s="2">
+        <v>45</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2">
+        <v>4</v>
+      </c>
+      <c r="B76" s="2">
+        <v>381</v>
+      </c>
+      <c r="C76" s="2">
+        <v>60</v>
+      </c>
+      <c r="D76" s="2">
+        <v>45</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2">
+        <v>4</v>
+      </c>
+      <c r="B77" s="2">
+        <v>391</v>
+      </c>
+      <c r="C77" s="2">
+        <v>60</v>
+      </c>
+      <c r="D77" s="2">
+        <v>45</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+      <c r="F77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2">
+        <v>4</v>
+      </c>
+      <c r="B78" s="2">
+        <v>393</v>
+      </c>
+      <c r="C78" s="2">
+        <v>60</v>
+      </c>
+      <c r="D78" s="2">
+        <v>45</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2">
+        <v>3</v>
+      </c>
+      <c r="B79" s="2">
+        <v>392</v>
+      </c>
+      <c r="C79" s="2">
+        <v>60</v>
+      </c>
+      <c r="D79" s="2">
+        <v>45</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2">
+        <v>4</v>
+      </c>
+      <c r="B80" s="2">
+        <v>392</v>
+      </c>
+      <c r="C80" s="2">
+        <v>60</v>
+      </c>
+      <c r="D80" s="2">
+        <v>45</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2">
+        <v>4</v>
+      </c>
+      <c r="B81" s="2">
+        <v>393</v>
+      </c>
+      <c r="C81" s="2">
+        <v>60</v>
+      </c>
+      <c r="D81" s="2">
+        <v>45</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2">
+        <v>7</v>
+      </c>
+      <c r="B82" s="2">
+        <v>368</v>
+      </c>
+      <c r="C82" s="2">
+        <v>60</v>
+      </c>
+      <c r="D82" s="2">
+        <v>45</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2">
+        <v>0</v>
+      </c>
+      <c r="B83" s="2">
+        <v>362</v>
+      </c>
+      <c r="C83" s="2">
+        <v>60</v>
+      </c>
+      <c r="D83" s="2">
+        <v>45</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2">
+        <v>0</v>
+      </c>
+      <c r="B84" s="2">
+        <v>362</v>
+      </c>
+      <c r="C84" s="2">
+        <v>60</v>
+      </c>
+      <c r="D84" s="2">
+        <v>45</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2">
+        <v>0</v>
+      </c>
+      <c r="B85" s="2">
+        <v>361</v>
+      </c>
+      <c r="C85" s="2">
+        <v>60</v>
+      </c>
+      <c r="D85" s="2">
+        <v>45</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2">
+        <v>3</v>
+      </c>
+      <c r="B86" s="2">
+        <v>362</v>
+      </c>
+      <c r="C86" s="2">
+        <v>60</v>
+      </c>
+      <c r="D86" s="2">
+        <v>45</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2">
+        <v>0</v>
+      </c>
+      <c r="B87" s="2">
+        <v>361</v>
+      </c>
+      <c r="C87" s="2">
+        <v>60</v>
+      </c>
+      <c r="D87" s="2">
+        <v>45</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2">
+        <v>1</v>
+      </c>
+      <c r="B88" s="2">
+        <v>362</v>
+      </c>
+      <c r="C88" s="2">
+        <v>60</v>
+      </c>
+      <c r="D88" s="2">
+        <v>45</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2">
+        <v>1</v>
+      </c>
+      <c r="B89" s="2">
+        <v>362</v>
+      </c>
+      <c r="C89" s="2">
+        <v>60</v>
+      </c>
+      <c r="D89" s="2">
+        <v>45</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2">
+        <v>3</v>
+      </c>
+      <c r="B90" s="2">
+        <v>426</v>
+      </c>
+      <c r="C90" s="2">
+        <v>60</v>
+      </c>
+      <c r="D90" s="2">
+        <v>45</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2">
+        <v>2</v>
+      </c>
+      <c r="B91" s="2">
+        <v>363</v>
+      </c>
+      <c r="C91" s="2">
+        <v>60</v>
+      </c>
+      <c r="D91" s="2">
+        <v>45</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2">
+        <v>3</v>
+      </c>
+      <c r="B92" s="2">
+        <v>363</v>
+      </c>
+      <c r="C92" s="2">
+        <v>60</v>
+      </c>
+      <c r="D92" s="2">
+        <v>45</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2">
+        <v>3</v>
+      </c>
+      <c r="B93" s="2">
+        <v>372</v>
+      </c>
+      <c r="C93" s="2">
+        <v>60</v>
+      </c>
+      <c r="D93" s="2">
+        <v>45</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2">
+        <v>5</v>
+      </c>
+      <c r="B94" s="2">
+        <v>365</v>
+      </c>
+      <c r="C94" s="2">
+        <v>60</v>
+      </c>
+      <c r="D94" s="2">
+        <v>45</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2">
+        <v>2</v>
+      </c>
+      <c r="B95" s="2">
+        <v>363</v>
+      </c>
+      <c r="C95" s="2">
+        <v>60</v>
+      </c>
+      <c r="D95" s="2">
+        <v>45</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2">
+        <v>4</v>
+      </c>
+      <c r="B96" s="2">
+        <v>363</v>
+      </c>
+      <c r="C96" s="2">
+        <v>60</v>
+      </c>
+      <c r="D96" s="2">
+        <v>45</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2">
+        <v>5</v>
+      </c>
+      <c r="B97" s="2">
+        <v>363</v>
+      </c>
+      <c r="C97" s="2">
+        <v>60</v>
+      </c>
+      <c r="D97" s="2">
+        <v>45</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2">
+        <v>3</v>
+      </c>
+      <c r="B98" s="2">
+        <v>364</v>
+      </c>
+      <c r="C98" s="2">
+        <v>60</v>
+      </c>
+      <c r="D98" s="2">
+        <v>45</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0</v>
+      </c>
+      <c r="F98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2">
+        <v>3</v>
+      </c>
+      <c r="B99" s="2">
+        <v>372</v>
+      </c>
+      <c r="C99" s="2">
+        <v>60</v>
+      </c>
+      <c r="D99" s="2">
+        <v>45</v>
+      </c>
+      <c r="E99" s="2">
+        <v>0</v>
+      </c>
+      <c r="F99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2">
+        <v>1</v>
+      </c>
+      <c r="B100" s="2">
+        <v>363</v>
+      </c>
+      <c r="C100" s="2">
+        <v>60</v>
+      </c>
+      <c r="D100" s="2">
+        <v>45</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0</v>
+      </c>
+      <c r="F100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2">
+        <v>2</v>
+      </c>
+      <c r="B101" s="2">
+        <v>362</v>
+      </c>
+      <c r="C101" s="2">
+        <v>60</v>
+      </c>
+      <c r="D101" s="2">
+        <v>45</v>
+      </c>
+      <c r="E101" s="2">
+        <v>0</v>
+      </c>
+      <c r="F101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="2">
+        <v>2</v>
+      </c>
+      <c r="B102" s="2">
+        <v>362</v>
+      </c>
+      <c r="C102" s="2">
+        <v>60</v>
+      </c>
+      <c r="D102" s="2">
+        <v>45</v>
+      </c>
+      <c r="E102" s="2">
+        <v>0</v>
+      </c>
+      <c r="F102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="2">
+        <v>3</v>
+      </c>
+      <c r="B103" s="2">
+        <v>362</v>
+      </c>
+      <c r="C103" s="2">
+        <v>60</v>
+      </c>
+      <c r="D103" s="2">
+        <v>45</v>
+      </c>
+      <c r="E103" s="2">
+        <v>0</v>
+      </c>
+      <c r="F103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="2">
+        <v>2</v>
+      </c>
+      <c r="B104" s="2">
+        <v>362</v>
+      </c>
+      <c r="C104" s="2">
+        <v>60</v>
+      </c>
+      <c r="D104" s="2">
+        <v>45</v>
+      </c>
+      <c r="E104" s="2">
+        <v>0</v>
+      </c>
+      <c r="F104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="2">
+        <v>5</v>
+      </c>
+      <c r="B105" s="2">
+        <v>380</v>
+      </c>
+      <c r="C105" s="2">
+        <v>60</v>
+      </c>
+      <c r="D105" s="2">
+        <v>45</v>
+      </c>
+      <c r="E105" s="2">
+        <v>0</v>
+      </c>
+      <c r="F105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="2">
+        <v>5</v>
+      </c>
+      <c r="B106" s="2">
+        <v>375</v>
+      </c>
+      <c r="C106" s="2">
+        <v>60</v>
+      </c>
+      <c r="D106" s="2">
+        <v>45</v>
+      </c>
+      <c r="E106" s="2">
+        <v>0</v>
+      </c>
+      <c r="F106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="2">
+        <v>3</v>
+      </c>
+      <c r="B107" s="2">
+        <v>373</v>
+      </c>
+      <c r="C107" s="2">
+        <v>60</v>
+      </c>
+      <c r="D107" s="2">
+        <v>45</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0</v>
+      </c>
+      <c r="F107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="2">
+        <v>3</v>
+      </c>
+      <c r="B108" s="2">
+        <v>373</v>
+      </c>
+      <c r="C108" s="2">
+        <v>60</v>
+      </c>
+      <c r="D108" s="2">
+        <v>45</v>
+      </c>
+      <c r="E108" s="2">
+        <v>0</v>
+      </c>
+      <c r="F108" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="2">
+        <v>3</v>
+      </c>
+      <c r="B109" s="2">
+        <v>373</v>
+      </c>
+      <c r="C109" s="2">
+        <v>60</v>
+      </c>
+      <c r="D109" s="2">
+        <v>45</v>
+      </c>
+      <c r="E109" s="2">
+        <v>0</v>
+      </c>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="2">
+        <v>7</v>
+      </c>
+      <c r="B110" s="2">
+        <v>365</v>
+      </c>
+      <c r="C110" s="2">
+        <v>60</v>
+      </c>
+      <c r="D110" s="2">
+        <v>45</v>
+      </c>
+      <c r="E110" s="2">
+        <v>0</v>
+      </c>
+      <c r="F110" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="2">
+        <v>2</v>
+      </c>
+      <c r="B111" s="2">
+        <v>362</v>
+      </c>
+      <c r="C111" s="2">
+        <v>60</v>
+      </c>
+      <c r="D111" s="2">
+        <v>45</v>
+      </c>
+      <c r="E111" s="2">
+        <v>0</v>
+      </c>
+      <c r="F111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="2">
+        <v>15</v>
+      </c>
+      <c r="B112" s="2">
+        <v>421</v>
+      </c>
+      <c r="C112" s="2">
+        <v>60</v>
+      </c>
+      <c r="D112" s="2">
+        <v>45</v>
+      </c>
+      <c r="E112" s="2">
+        <v>0</v>
+      </c>
+      <c r="F112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="2">
+        <v>6</v>
+      </c>
+      <c r="B113" s="2">
+        <v>412</v>
+      </c>
+      <c r="C113" s="2">
+        <v>60</v>
+      </c>
+      <c r="D113" s="2">
+        <v>45</v>
+      </c>
+      <c r="E113" s="2">
+        <v>0</v>
+      </c>
+      <c r="F113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="2">
+        <v>6</v>
+      </c>
+      <c r="B114" s="2">
+        <v>412</v>
+      </c>
+      <c r="C114" s="2">
+        <v>60</v>
+      </c>
+      <c r="D114" s="2">
+        <v>45</v>
+      </c>
+      <c r="E114" s="2">
+        <v>0</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="2">
+        <v>5</v>
+      </c>
+      <c r="B115" s="2">
+        <v>412</v>
+      </c>
+      <c r="C115" s="2">
+        <v>60</v>
+      </c>
+      <c r="D115" s="2">
+        <v>45</v>
+      </c>
+      <c r="E115" s="2">
+        <v>0</v>
+      </c>
+      <c r="F115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="2">
+        <v>6</v>
+      </c>
+      <c r="B116" s="2">
+        <v>412</v>
+      </c>
+      <c r="C116" s="2">
+        <v>60</v>
+      </c>
+      <c r="D116" s="2">
+        <v>45</v>
+      </c>
+      <c r="E116" s="2">
+        <v>0</v>
+      </c>
+      <c r="F116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="2">
+        <v>7</v>
+      </c>
+      <c r="B117" s="2">
+        <v>412</v>
+      </c>
+      <c r="C117" s="2">
+        <v>60</v>
+      </c>
+      <c r="D117" s="2">
+        <v>45</v>
+      </c>
+      <c r="E117" s="2">
+        <v>0</v>
+      </c>
+      <c r="F117" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="2">
+        <v>6</v>
+      </c>
+      <c r="B118" s="2">
+        <v>412</v>
+      </c>
+      <c r="C118" s="2">
+        <v>60</v>
+      </c>
+      <c r="D118" s="2">
+        <v>45</v>
+      </c>
+      <c r="E118" s="2">
+        <v>0</v>
+      </c>
+      <c r="F118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="D119" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="D120" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
